--- a/models3/excels2/SelfPath.xlsx
+++ b/models3/excels2/SelfPath.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PyCharm 2022.2.1\pythonProject\NIRModel\models3\excels2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2419738-E4EB-4798-A716-62073135FDEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1CE849-C1A4-43AD-90C8-056ACACD053F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,337 +34,337 @@
     <t>label</t>
   </si>
   <si>
+    <t>ZJSYF00006-YUJI-202110261103-双波段-L.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02465-HGXI-202310190820-L-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S177-YYYI-202210211452-双波段10-R.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00010-WYHU-202111221638-10-L.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02469-LJXI-202310191431-L-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S137-CXLI-202208231730-双波段10-R.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S383-LHPI-202310201125-双波段10-R.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01859-HLJI-202301130934-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02085-TGRO-202307071703-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01838-CYPI-202301030937-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02454-DYXI-202310161416-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02445-STSH-202310131117-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02314-CLHU-202309080935-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02240-HWYU-202308291417-R-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S238-ZXYI-202302281015-双波段10-L.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01831-LIPI-202212270922-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S289-LYFE-202306051510-双波段10-R.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S358-YZNA-202309051400-双波段10-L.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00016-CYYA-202112071301-双波段10-R.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S169-XZYI-202210171724-双波段10-L.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S218-DFFE-202301041403-双波段10-L.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01854-HZQI-202301120917-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S190-HQYU-202211011636-双波段10-R.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02007-LYFA-202307061037-R-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S403-CXLI-202311150958-双波段10-R.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02012-LYYA-202307200834-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S355-RSQI-202309041347-双波段10-R.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S212-LCJI-202212080943-双波段10-L.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01870-HLSI-202301291045-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>KC7Q6A11.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S370-WJXI-202309221435-双波段10-L.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S396-HXYA-202311071058-双波段10-L.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-00036-CXZH-202203291034-双波段10-R.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02094-ZLDA-202306121101-L-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S303-ZHXI-202307031511-双波段10-L.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01907-LWQI-202302130901-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02463-LYLI-202310181604-L-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00205-XFQI-202307271519-双10-L.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00583-CXE-202205090924双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S211-JLPI-202211301019-双波段10-R.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01873-JYSO-202301301444-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S301-LBQI-202307031012-双波段10-L.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02036-CGHU-202308011658-R-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S181-SYLI-202210251640-双波段10-R.bmp</t>
+  </si>
+  <si>
+    <t>SCCDFY003-MLZH-202202221136-双波段10-R.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02076-TSJU-202308161457-R-D.bmp</t>
+  </si>
+  <si>
+    <t>KBRMXM11.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S232-XCYI-202302201435-双波段10-L.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01966-ZHYA-202303010905-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S304-ZXLI-202307031533-双波段10-L.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01906-XSYA-202302101437-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02242-CLFE-202308291633-L-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S313-WLPI-202307191144-双波段10-R.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S214-YXJI-202212091047-双波段10-R.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S278-MSNV-202305221622-双波段10-L.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02116-WUHA-202304201532-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02087-LILI-202308181107-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01895-ZAPI-202302081010-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S249-CJYA-202303271432-双波段10-L.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-00143-ZHQL-202208221130-双波段10-R.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S310-NFJU-202307171134-双波段10-R.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02453-SMME-202310161015-R-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00027-CHXI-202201121658-双波段10-R.bmp</t>
+  </si>
+  <si>
+    <t>KE3K8FH1.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S392-TJFE-202311011023-双波段10-R.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00697-ZYLI-202205230920-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>KE9JEXH1.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01994-ZHMI-202303071132-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02267-CAYU-202307101059-L-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S185-ZQLI-202210311548-双波段10-L.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02261-LLHU-202308100942-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00687-TMLI-202205200938-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S294-SEQI-202306191313-双波段10-L.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02392-CLCH-202309220944-R-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S248-LYXI-202303241027-双波段10-R.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01828-XYTI-202212200916-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>KBRND4H1.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02003-WHQU-202307141043-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S390-YYQI-202311010931-双波段-10-L.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00704-YAMI-202205231445-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S347-JJQI-202308281410-双波段10-R.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01842-LYJI-202301050839-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02090-HXME-202304270927-R-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S398-JKDI-202311101042-双波段10-L.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S277-ZMLA-202305221527-双波段10-L.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02285-LHDI-202306091012-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01803-LWXI-202210311000-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02109-YSQU-202305250913-R-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S397-YXXI-202311081100-双波段10-L.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S361-LJHA-202309111007-双波段10-L.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02088-XYYA-202306150908-R-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S363-ZHJU-202309111556-双波段10-L.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00718-HYFE-202205241110-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02373-THME-202309181554-R-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S264-JCXI-202304241152-双波段10-R.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02205-ZJXI-202306141326-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01817-ZALI-202212070958-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S256-GALI-202304111509-双波段10-R.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01941-GQWE-202302221101-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S162-YAME-202210101614-双波段10-L.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S284-NFHO-202305291449-双波段10-L.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02227-OYXH-202305121024-L-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S339-HXHU-202308211319-双波段10-L.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01839-XYQU-202301030947-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S365-XMJI-202309201302-双波段10-R.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S170-SQHO-202210181104-双波段10-L.bmp</t>
+  </si>
+  <si>
+    <t>ZJSYF00002-CFHU-202110111442-双波段-L.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S368-TMME-202309221114-双波段10-R.bmp</t>
+  </si>
+  <si>
     <t>020-ZSSYX-01886-LMYA-202302031043-双波段-R-D.bmp</t>
   </si>
   <si>
-    <t>0571-ZKYZL-S212-LCJI-202212080943-双波段10-L.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01994-ZHMI-202303071132-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S211-JLPI-202211301019-双波段10-R.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S358-YZNA-202309051400-双波段10-L.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S347-JJQI-202308281410-双波段10-R.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S218-DFFE-202301041403-双波段10-L.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01839-XYQU-202301030947-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02109-YSQU-202305250913-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01870-HLSI-202301291045-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00697-ZYLI-202205230920-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01831-LIPI-202212270922-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02454-DYXI-202310161416-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01838-CYPI-202301030937-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00704-YAMI-202205231445-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S181-SYLI-202210251640-双波段10-R.bmp</t>
-  </si>
-  <si>
-    <t>KCFNSE11.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S256-GALI-202304111509-双波段10-R.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02453-SMME-202310161015-R-D.bmp</t>
-  </si>
-  <si>
-    <t>ZJSYF00006-YUJI-202110261103-双波段-L.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02373-THME-202309181554-R-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S232-XCYI-202302201435-双波段10-L.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02033-LILU-202308011016-R-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00016-CYYA-202112071301-双波段10-R.bmp</t>
-  </si>
-  <si>
-    <t>KBRMXM11.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S339-HXHU-202308211319-双波段10-L.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S190-HQYU-202211011636-双波段10-R.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02116-WUHA-202304201532-L-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S294-SEQI-202306191313-双波段10-L.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-00143-ZHQL-202208221130-双波段10-R.bmp</t>
-  </si>
-  <si>
-    <t>KE3K8FH1.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S390-YYQI-202311010931-双波段-10-L.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00010-WYHU-202111221638-10-L.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02088-XYYA-202306150908-R-D.bmp</t>
+    <t>020-ZSSYX-02075-HFXI-202308161436-R-D.bmp</t>
   </si>
   <si>
     <t>0571-ZKYZL-S280-YJYU-202305261232-双波段10-L.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02087-LILI-202308181107-R-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S248-LYXI-202303241027-双波段10-R.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02003-WHQU-202307141043-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>KBRND4H1.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S170-SQHO-202210181104-双波段10-L.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S396-HXYA-202311071058-双波段10-L.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S278-MSNV-202305221622-双波段10-L.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S392-TJFE-202311011023-双波段10-R.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00205-XFQI-202307271519-双10-L.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S210-PZYA-202211231419-双波段10-L.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02463-LYLI-202310181604-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02242-CLFE-202308291633-L-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S310-NFJU-202307171134-双波段10-R.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S363-ZHJU-202309111556-双波段10-L.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S249-CJYA-202303271432-双波段10-L.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01966-ZHYA-202303010905-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S361-LJHA-202309111007-双波段10-L.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S137-CXLI-202208231730-双波段10-R.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02090-HXME-202304270927-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02465-HGXI-202310190820-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01854-HZQI-202301120917-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02094-ZLDA-202306121101-L-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S368-TMME-202309221114-双波段10-R.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02007-LYFA-202307061037-R-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S313-WLPI-202307191144-双波段10-R.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02075-HFXI-202308161436-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01873-JYSO-202301301444-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02392-CLCH-202309220944-R-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S355-RSQI-202309041347-双波段10-R.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00718-HYFE-202205241110-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S303-ZHXI-202307031511-双波段10-L.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S383-LHPI-202310201125-双波段10-R.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S185-ZQLI-202210311548-双波段10-L.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S214-YXJI-202212091047-双波段10-R.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S261-YXLI-202304171023-双波段10-L.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S264-JCXI-202304241152-双波段10-R.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01895-ZAPI-202302081010-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02285-LHDI-202306091012-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02205-ZJXI-202306141326-R-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S162-YAME-202210101614-双波段10-L.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01842-LYJI-202301050839-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S275-FAPI-202305191624-双波段10-R.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S304-ZXLI-202307031533-双波段10-L.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02314-CLHU-202309080935-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01803-LWXI-202210311000-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00687-TMLI-202205200938-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S169-XZYI-202210171724-双波段10-L.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02036-CGHU-202308011658-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02445-STSH-202310131117-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00583-CXE-202205090924双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02085-TGRO-202307071703-L-D.bmp</t>
-  </si>
-  <si>
-    <t>KC7Q6A11.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S277-ZMLA-202305221527-双波段10-L.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01817-ZALI-202212070958-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01941-GQWE-202302221101-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02342-LMER-202309131500-L-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S177-YYYI-202210211452-双波段10-R.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02208-ZYHU-202308221525-R-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S370-WJXI-202309221435-双波段10-L.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-00036-CXZH-202203291034-双波段10-R.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02267-CAYU-202307101059-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01828-XYTI-202212200916-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>KE9JEXH1.bmp</t>
-  </si>
-  <si>
-    <t>SCCDFY003-MLZH-202202221136-双波段10-R.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02240-HWYU-202308291417-R-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S238-ZXYI-202302281015-双波段10-L.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01859-HLJI-202301130934-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S365-XMJI-202309201302-双波段10-R.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S397-YXXI-202311081100-双波段10-L.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01906-XSYA-202302101437-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02469-LJXI-202310191431-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02261-LLHU-202308100942-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02227-OYXH-202305121024-L-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S301-LBQI-202307031012-双波段10-L.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02012-LYYA-202307200834-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S289-LYFE-202306051510-双波段10-R.bmp</t>
   </si>
 </sst>
 </file>
@@ -741,11 +741,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -763,10 +766,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="B2">
-        <v>1.260044427908724E-5</v>
+        <v>2.0714448965009069E-6</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -777,10 +780,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B3">
-        <v>3.7256599171087153E-5</v>
+        <v>2.3633476757822791E-6</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -791,10 +794,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="B4">
-        <v>5.2554452850017697E-5</v>
+        <v>3.31162345901248E-6</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -805,10 +808,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="B5">
-        <v>5.9141340898349881E-5</v>
+        <v>7.1764334279578179E-6</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -819,10 +822,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="B6">
-        <v>6.6024687839671969E-5</v>
+        <v>1.0397912774351431E-5</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -833,10 +836,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B7">
-        <v>8.3923980128020048E-5</v>
+        <v>1.2217805306136141E-5</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -847,10 +850,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="B8">
-        <v>1.35368260089308E-4</v>
+        <v>1.474260807299288E-5</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -861,24 +864,24 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B9">
-        <v>1.5953452384565031E-4</v>
+        <v>1.927291486936156E-5</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B10">
-        <v>1.8854775407817209E-4</v>
+        <v>2.8896827643620799E-5</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -889,10 +892,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="B11">
-        <v>1.8860744603443891E-4</v>
+        <v>3.0504701499012299E-5</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -903,10 +906,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="B12">
-        <v>1.9667953893076631E-4</v>
+        <v>3.7487076042452827E-5</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -917,10 +920,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="B13">
-        <v>1.9747969054151329E-4</v>
+        <v>3.7628695281455293E-5</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -931,10 +934,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="B14">
-        <v>2.0287377992644909E-4</v>
+        <v>4.1112300095846883E-5</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -945,10 +948,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>2.5610285229049618E-4</v>
+        <v>6.2376202549785376E-5</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -959,24 +962,24 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="B16">
-        <v>2.9551133047789341E-4</v>
+        <v>7.2326314693782479E-5</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="B17">
-        <v>3.1874104752205312E-4</v>
+        <v>8.7079803051892668E-5</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -987,24 +990,24 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>5.0282920710742474E-4</v>
+        <v>1.1678484588628629E-4</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="B19">
-        <v>5.1815109327435493E-4</v>
+        <v>1.2072433310095219E-4</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1015,24 +1018,24 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="B20">
-        <v>6.0130929341539741E-4</v>
+        <v>1.3238716928753999E-4</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="B21">
-        <v>7.1975588798522949E-4</v>
+        <v>1.5526918286923319E-4</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1043,24 +1046,24 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B22">
-        <v>8.7111536413431168E-4</v>
+        <v>2.4444548762403429E-4</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="B23">
-        <v>8.8793737813830376E-4</v>
+        <v>3.67810542229563E-4</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1071,24 +1074,24 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="B24">
-        <v>1.166540198028088E-3</v>
+        <v>4.5600000885315239E-4</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="B25">
-        <v>1.754828146658838E-3</v>
+        <v>6.7480211146175861E-4</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1099,10 +1102,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="B26">
-        <v>1.9460725598037241E-3</v>
+        <v>8.8144786423072219E-4</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1113,24 +1116,24 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="B27">
-        <v>2.9513020999729629E-3</v>
+        <v>1.0085982503369451E-3</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="B28">
-        <v>3.2226850744336839E-3</v>
+        <v>1.1652413522824649E-3</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1141,10 +1144,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="B29">
-        <v>3.3297354821115728E-3</v>
+        <v>1.351827406324446E-3</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1155,10 +1158,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="B30">
-        <v>3.4427598584443331E-3</v>
+        <v>2.6675444096326828E-3</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1169,10 +1172,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B31">
-        <v>3.4839189611375332E-3</v>
+        <v>2.8061447665095329E-3</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1183,66 +1186,66 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="B32">
-        <v>3.858784213662148E-3</v>
+        <v>3.3538613934069872E-3</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="B33">
-        <v>4.1664242744445801E-3</v>
+        <v>3.49368853494525E-3</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="B34">
-        <v>4.185039084404707E-3</v>
+        <v>4.6899020671844482E-3</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B35">
-        <v>6.2792892567813396E-3</v>
+        <v>5.0589418970048428E-3</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B36">
-        <v>6.9592404179275036E-3</v>
+        <v>5.1529994234442711E-3</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1253,24 +1256,24 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="B37">
-        <v>8.9055858552455902E-3</v>
+        <v>5.8049261569976807E-3</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="B38">
-        <v>1.0651832446455961E-2</v>
+        <v>7.6049799099564552E-3</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1281,10 +1284,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="B39">
-        <v>1.8154509365558621E-2</v>
+        <v>8.8729066774249077E-3</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1295,10 +1298,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="B40">
-        <v>2.1349450573325199E-2</v>
+        <v>1.071157585829496E-2</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1309,10 +1312,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B41">
-        <v>2.440518140792847E-2</v>
+        <v>1.8846968188881871E-2</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1323,66 +1326,66 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="B42">
-        <v>2.5312598794698719E-2</v>
+        <v>2.5902640074491501E-2</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B43">
-        <v>2.598194032907486E-2</v>
+        <v>2.7371499687433239E-2</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="B44">
-        <v>2.9944859445095059E-2</v>
+        <v>2.8013557195663449E-2</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B45">
-        <v>3.3052548766136169E-2</v>
+        <v>3.0150610953569409E-2</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="B46">
-        <v>4.0222007781267173E-2</v>
+        <v>3.2390523701906197E-2</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -1393,10 +1396,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="B47">
-        <v>4.1378021240234382E-2</v>
+        <v>3.6781348288059228E-2</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -1407,52 +1410,52 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="B48">
-        <v>4.5910995453596122E-2</v>
+        <v>4.6150200068950653E-2</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="B49">
-        <v>6.4084261655807495E-2</v>
+        <v>5.4030369967222207E-2</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="B50">
-        <v>6.7186646163463593E-2</v>
+        <v>5.9304539114236832E-2</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B51">
-        <v>9.8224140703678131E-2</v>
+        <v>7.0461750030517578E-2</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -1463,10 +1466,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="B52">
-        <v>0.1085846945643425</v>
+        <v>0.14272560179233551</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -1477,10 +1480,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B53">
-        <v>0.1662122905254364</v>
+        <v>0.14289900660514829</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -1491,10 +1494,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="B54">
-        <v>0.2113608121871948</v>
+        <v>0.159076914191246</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -1505,10 +1508,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="B55">
-        <v>0.21524855494499209</v>
+        <v>0.19651450216770169</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -1519,10 +1522,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B56">
-        <v>0.22245016694068909</v>
+        <v>0.19827745854854581</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -1533,10 +1536,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="B57">
-        <v>0.26445260643959051</v>
+        <v>0.24718292057514191</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -1547,41 +1550,41 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="B58">
-        <v>0.30365866422653198</v>
+        <v>0.3341907262802124</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="B59">
-        <v>0.35325366258621221</v>
+        <v>0.36251828074455261</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="B60">
-        <v>0.56353778839111301</v>
+        <v>0.37156325578689581</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -1589,10 +1592,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B61">
-        <v>0.38186448812484741</v>
+        <v>0.47838208675384503</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -1603,13 +1606,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B62">
-        <v>0.39700335264205933</v>
+        <v>0.52829043865203895</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -1617,16 +1620,16 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B63">
-        <v>0.4456077516078949</v>
+        <v>0.60118997097015381</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1634,10 +1637,10 @@
         <v>46</v>
       </c>
       <c r="B64">
-        <v>0.47738319635391241</v>
+        <v>0.66064107418060303</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -1645,10 +1648,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="B65">
-        <v>0.52912390232086182</v>
+        <v>0.72502797842025757</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -1659,10 +1662,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="B66">
-        <v>0.54234033823013306</v>
+        <v>0.74568760395050049</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -1673,10 +1676,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B67">
-        <v>0.56098240613937378</v>
+        <v>0.7521517276763916</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -1687,27 +1690,27 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="B68">
-        <v>0.56842762231826782</v>
+        <v>0.76598918437957764</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.59147202968597412</v>
+        <v>0.19671508073806801</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -1715,38 +1718,38 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="B70">
-        <v>0.61015832424163818</v>
+        <v>0.79778110980987549</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="B71">
-        <v>0.62691885232925415</v>
+        <v>0.82635778188705444</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="B72">
-        <v>0.7265174388885498</v>
+        <v>0.84266883134841897</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -1757,13 +1760,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="B73">
-        <v>0.74544864892959595</v>
+        <v>5.2944970130919998E-2</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -1771,10 +1774,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="B74">
-        <v>0.7725566029548645</v>
+        <v>0.86591231822967529</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -1785,10 +1788,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="B75">
-        <v>0.79576802253723145</v>
+        <v>0.87042003870010376</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -1799,10 +1802,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B76">
-        <v>0.8199802041053772</v>
+        <v>0.87295472621917725</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -1813,10 +1816,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.84642487764358521</v>
+        <v>0.88649320602416992</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -1827,10 +1830,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="B78">
-        <v>0.84962105751037598</v>
+        <v>0.89934951066970825</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -1841,16 +1844,16 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="B79">
-        <v>0.86565613746643066</v>
+        <v>0.9131772518157959</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -1858,7 +1861,7 @@
         <v>99</v>
       </c>
       <c r="B80">
-        <v>0.87857067584991455</v>
+        <v>0.91784965991973877</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -1869,24 +1872,24 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B81">
-        <v>0.90149891376495361</v>
+        <v>0.91984879970550537</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>106</v>
+        <v>35</v>
       </c>
       <c r="B82">
-        <v>0.93278145790100098</v>
+        <v>0.95016783475875854</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -1897,38 +1900,38 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B83">
-        <v>0.95157927274703979</v>
+        <v>0.95199739933013916</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="B84">
-        <v>0.95814990997314453</v>
+        <v>0.95838165283203125</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B85">
-        <v>0.96045291423797607</v>
+        <v>0.97457516193389893</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -1939,13 +1942,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.465519368648529</v>
+        <v>0.97516781091690063</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -1953,38 +1956,38 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B87">
-        <v>0.96838366985321045</v>
+        <v>0.98685383796691895</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="B88">
-        <v>0.96871715784072876</v>
+        <v>0.98806506395339966</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="B89">
-        <v>0.97608870267868042</v>
+        <v>0.98898178339004517</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -1995,27 +1998,27 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="B90">
-        <v>0.97859984636306763</v>
+        <v>0.99281424283981323</v>
       </c>
       <c r="C90">
         <v>1</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="B91">
-        <v>0.38298603296279898</v>
+        <v>0.99331951141357422</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -2023,24 +2026,24 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="B92">
-        <v>0.98321759700775146</v>
+        <v>0.99349230527877808</v>
       </c>
       <c r="C92">
         <v>1</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="B93">
-        <v>0.98570388555526733</v>
+        <v>0.9942169189453125</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -2051,24 +2054,24 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B94">
-        <v>0.98905652761459351</v>
+        <v>0.9973527193069458</v>
       </c>
       <c r="C94">
         <v>1</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>0.99070930480957031</v>
+        <v>0.9979674220085144</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -2079,24 +2082,24 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="B96">
-        <v>0.99460560083389282</v>
+        <v>0.99804949760437012</v>
       </c>
       <c r="C96">
         <v>1</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="B97">
-        <v>0.99472683668136597</v>
+        <v>0.99838900566101074</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -2107,38 +2110,38 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="B98">
-        <v>0.99549132585525513</v>
+        <v>0.9986082911491394</v>
       </c>
       <c r="C98">
         <v>1</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="B99">
-        <v>0.99582481384277344</v>
+        <v>0.99890232086181641</v>
       </c>
       <c r="C99">
         <v>1</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="B100">
-        <v>0.99671763181686401</v>
+        <v>0.99940729141235352</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -2149,10 +2152,10 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B101">
-        <v>0.99798798561096191</v>
+        <v>0.99947601556777954</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -2163,10 +2166,10 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="B102">
-        <v>0.99827837944030762</v>
+        <v>0.99948394298553467</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -2177,24 +2180,24 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="B103">
-        <v>0.99870789051055908</v>
+        <v>0.99956518411636353</v>
       </c>
       <c r="C103">
         <v>1</v>
       </c>
       <c r="D103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B104">
-        <v>0.99886500835418701</v>
+        <v>0.99965596199035645</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -2205,10 +2208,10 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B105">
-        <v>0.9991341233253479</v>
+        <v>0.99978393316268921</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -2219,10 +2222,10 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B106">
-        <v>0.99927133321762085</v>
+        <v>0.99981600046157837</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -2233,10 +2236,10 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B107">
-        <v>0.9997292160987854</v>
+        <v>0.99989449977874756</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -2247,10 +2250,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="B108">
-        <v>0.99978941679000854</v>
+        <v>0.99991095066070557</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -2261,10 +2264,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="B109">
-        <v>0.99984598159790039</v>
+        <v>0.99995911121368408</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -2275,10 +2278,10 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B110">
-        <v>0.99996912479400635</v>
+        <v>0.99999558925628662</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -2289,10 +2292,10 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="B111">
-        <v>0.999969482421875</v>
+        <v>0.99999666213989258</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -2303,10 +2306,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="B112">
-        <v>0.99998998641967773</v>
+        <v>0.99999809265136719</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -2317,7 +2320,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D112">
-    <sortCondition ref="B66:B112"/>
+    <sortCondition ref="B96:B112"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
